--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\sql-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBE94E7-2E31-4C4B-BF35-5BC0D8D04693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A148833-46B1-4BCD-8FF5-BCB452E1A220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="4" xr2:uid="{613B0CCF-6A52-4E75-BD7A-21120B21F98E}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="15375" windowHeight="8325" activeTab="1" xr2:uid="{613B0CCF-6A52-4E75-BD7A-21120B21F98E}"/>
   </bookViews>
   <sheets>
     <sheet name="factories" sheetId="1" r:id="rId1"/>
-    <sheet name="estates" sheetId="2" r:id="rId2"/>
-    <sheet name="departments" sheetId="3" r:id="rId3"/>
-    <sheet name="products" sheetId="4" r:id="rId4"/>
-    <sheet name="farmers" sheetId="5" r:id="rId5"/>
-    <sheet name="buying_centers" sheetId="6" r:id="rId6"/>
-    <sheet name="estate_employees" sheetId="7" r:id="rId7"/>
-    <sheet name="gg" sheetId="10" r:id="rId8"/>
-    <sheet name="factory_departments" sheetId="8" r:id="rId9"/>
-    <sheet name="factory_employees" sheetId="9" r:id="rId10"/>
-    <sheet name="estate_departments" sheetId="11" r:id="rId11"/>
+    <sheet name="farmers_track" sheetId="12" r:id="rId2"/>
+    <sheet name="farmers_sacco" sheetId="13" r:id="rId3"/>
+    <sheet name="farmers_bank" sheetId="14" r:id="rId4"/>
+    <sheet name="estates" sheetId="2" r:id="rId5"/>
+    <sheet name="products" sheetId="4" r:id="rId6"/>
+    <sheet name="farmers" sheetId="5" r:id="rId7"/>
+    <sheet name="buying_centers" sheetId="6" r:id="rId8"/>
+    <sheet name="estate_employees" sheetId="7" r:id="rId9"/>
+    <sheet name="factory_departments" sheetId="8" r:id="rId10"/>
+    <sheet name="factory_employees" sheetId="9" r:id="rId11"/>
+    <sheet name="estate_departments" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>factory-id</t>
   </si>
@@ -52,12 +53,6 @@
     <t>factory_id</t>
   </si>
   <si>
-    <t>d_id</t>
-  </si>
-  <si>
-    <t>department_name</t>
-  </si>
-  <si>
     <t>product_id</t>
   </si>
   <si>
@@ -104,6 +99,9 @@
   </si>
   <si>
     <t>estate_departments_id</t>
+  </si>
+  <si>
+    <t>est_id</t>
   </si>
 </sst>
 </file>
@@ -480,6 +478,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFF1550-8860-4051-97F4-710D701C8C7C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A057D17-1706-49BC-AA1C-9C3C7D672AFB}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -496,23 +521,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C955C-AC2C-41F2-9130-292388D63FA4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -524,9 +549,12 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -535,11 +563,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CB45E0-01A8-45C1-A93E-AE661413AAD2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3D65AD-FC10-4340-BF9E-0F55DE7DE477}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A344518-C68F-41B9-81FE-BDCAFA700109}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969F6D59-FDB7-4523-A75B-47970D10237E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,44 +620,15 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9C1D5A-5E68-4086-BB85-7108609152CD}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B484A9-F4DC-4585-B8F1-C2D0A9D9A567}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -610,25 +645,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5C55BC-D07D-4DF9-8E4B-66545697569A}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -641,21 +676,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F6D229-1AB1-44DF-B084-D00AD2AEC50F}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -672,21 +707,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A5F533-F21A-4B69-A90F-D52444BBB6F3}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -703,52 +738,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8947E01E-D484-4F41-A6AC-29056779DBD7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFF1550-8860-4051-97F4-710D701C8C7C}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
